--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="275">
   <si>
     <t>LimType</t>
   </si>
@@ -1129,229 +1129,232 @@
     <t>~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
   </si>
   <si>
+    <t>S-SH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC-HP_X0</t>
+  </si>
+  <si>
     <t>S-SH-CS_COA_X0</t>
   </si>
   <si>
-    <t>S-SH-CS_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_LPG_X0</t>
+    <t>S-SH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>year2</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>S-WH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>AFA for SRV techs</t>
+  </si>
+  <si>
+    <t>EFF for SRV techs</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
+  </si>
+  <si>
+    <t>S-LIG-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>*Electric appliances</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>S-PLIG*</t>
+  </si>
+  <si>
+    <t>EFF*Stock</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Transform techno-economic data</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
   </si>
   <si>
     <t>S-SH-PU_OIL_X0</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>S-SH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-WH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>AFA for SRV techs</t>
-  </si>
-  <si>
-    <t>EFF for SRV techs</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>*Electric appliances</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>S-PLIG*</t>
-  </si>
-  <si>
-    <t>EFF*Stock</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>New Technologies - Transformation</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Transform techno-economic data</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>S-SH-CS_BIO_X0</t>
   </si>
 </sst>
 </file>
@@ -1514,14 +1517,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499440014362335"/>
+      <color theme="7" tint="-0.499430000782013"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499440014362335"/>
+      <color theme="7" tint="-0.499430000782013"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0494499988853931"/>
+        <fgColor theme="0" tint="-0.0494400002062321"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149460002779961"/>
+        <fgColor theme="0" tint="-0.1494500041008"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2261,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4537" t="8853" r="7666" b="12844"/>
+        <a:srcRect l="4536" t="8851" r="7664" b="12843"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2388,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1287" t="6483" r="3930" b="6256"/>
+        <a:srcRect l="1286" t="6481" r="3929" b="6254"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2431,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3918" t="26118" r="3918" b="26116"/>
+        <a:srcRect l="3916" t="26116" r="3916" b="26115"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5787,7 +5790,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A2" sqref="A2"/>
@@ -5798,7 +5801,7 @@
     <col min="3" max="3" width="15.4285714285714" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5838,8 +5841,11 @@
       <c r="M1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+      <c r="N1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5847,7 +5853,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5879,8 +5885,11 @@
       <c r="M2">
         <v>0.0342465753424658</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15">
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5888,7 +5897,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5920,8 +5929,11 @@
       <c r="M3">
         <v>0.0342465753424658</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15">
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5929,7 +5941,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5961,8 +5973,11 @@
       <c r="M4">
         <v>0.0342465753424658</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5970,7 +5985,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6002,8 +6017,11 @@
       <c r="M5">
         <v>0.0342465753424658</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6011,7 +6029,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6043,8 +6061,11 @@
       <c r="M6">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6052,7 +6073,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6084,8 +6105,11 @@
       <c r="M7">
         <v>2.7679848891515602</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15">
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6093,7 +6117,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6125,8 +6149,11 @@
       <c r="M8">
         <v>2.7466471585410202</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15">
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6134,7 +6161,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6165,6 +6192,9 @@
       </c>
       <c r="M9">
         <v>2.7679848891515602</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6176,7 +6206,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D26C6F6-7364-4BC5-A5DD-ABBD01511FAF}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -6185,7 +6215,7 @@
     <col min="3" max="3" width="21.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -6225,8 +6255,11 @@
       <c r="M1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+      <c r="N1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6234,7 +6267,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6266,8 +6299,11 @@
       <c r="M2">
         <v>2.4973571887487398</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15">
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6275,7 +6311,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6307,8 +6343,11 @@
       <c r="M3">
         <v>4.3260777448279004</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15">
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6316,7 +6355,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6348,8 +6387,11 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6357,7 +6399,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6389,8 +6431,11 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6398,7 +6443,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6430,8 +6475,11 @@
       <c r="M6">
         <v>0.48784295359637803</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6439,7 +6487,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6471,8 +6519,11 @@
       <c r="M7">
         <v>0.37305637627958299</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15">
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6480,7 +6531,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6512,8 +6563,11 @@
       <c r="M8">
         <v>0.31709791983764601</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15">
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6521,7 +6575,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6553,8 +6607,11 @@
       <c r="M9">
         <v>1.2683916793505801</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15">
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6562,7 +6619,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6594,8 +6651,11 @@
       <c r="M10">
         <v>33.491553664929803</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15">
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6603,7 +6663,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6635,8 +6695,11 @@
       <c r="M11">
         <v>58.016156280053501</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15">
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6644,7 +6707,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6676,8 +6739,11 @@
       <c r="M12">
         <v>0.019199999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15">
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -6685,7 +6751,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6717,8 +6783,11 @@
       <c r="M13">
         <v>0.071999999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15">
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6726,7 +6795,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6758,8 +6827,11 @@
       <c r="M14">
         <v>0.38400000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15">
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6767,7 +6839,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -6798,6 +6870,9 @@
       </c>
       <c r="M15">
         <v>0.0047999999999999996</v>
+      </c>
+      <c r="N15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -11707,7 +11782,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="D33" sqref="D33"/>
@@ -11718,7 +11793,7 @@
     <col min="3" max="3" width="18.5714285714286" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -11758,8 +11833,11 @@
       <c r="M1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+      <c r="N1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11767,7 +11845,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -11799,8 +11877,11 @@
       <c r="M2">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15">
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11808,7 +11889,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11840,8 +11921,11 @@
       <c r="M3">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15">
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -11849,7 +11933,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -11881,8 +11965,11 @@
       <c r="M4">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11890,7 +11977,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -11922,8 +12009,11 @@
       <c r="M5">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -11931,7 +12021,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -11963,8 +12053,11 @@
       <c r="M6">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -11972,7 +12065,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -12004,8 +12097,11 @@
       <c r="M7">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15">
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12013,7 +12109,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -12045,8 +12141,11 @@
       <c r="M8">
         <v>0.116438356164384</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15">
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12086,8 +12185,11 @@
       <c r="M9">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15">
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -12095,7 +12197,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -12127,8 +12229,11 @@
       <c r="M10">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15">
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12136,7 +12241,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -12168,8 +12273,11 @@
       <c r="M11">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15">
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12177,7 +12285,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -12209,8 +12317,11 @@
       <c r="M12">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15">
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12218,7 +12329,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -12250,8 +12361,11 @@
       <c r="M13">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15">
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -12259,7 +12373,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -12291,8 +12405,11 @@
       <c r="M14">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15">
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12300,7 +12417,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -12332,8 +12449,11 @@
       <c r="M15">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15">
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12341,7 +12461,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12373,8 +12493,11 @@
       <c r="M16">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15">
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12382,7 +12505,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -12414,8 +12537,11 @@
       <c r="M17">
         <v>0.114155251141553</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15">
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -12423,7 +12549,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -12455,8 +12581,11 @@
       <c r="M18">
         <v>0.63490443337371305</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15">
+      <c r="N18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -12464,7 +12593,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -12496,8 +12625,11 @@
       <c r="M19">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15">
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -12505,7 +12637,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -12537,8 +12669,11 @@
       <c r="M20">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15">
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -12546,7 +12681,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12578,8 +12713,11 @@
       <c r="M21">
         <v>0.81595511259153497</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15">
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -12587,7 +12725,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -12619,8 +12757,11 @@
       <c r="M22">
         <v>0.77299617086321304</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15">
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -12628,7 +12769,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -12660,8 +12801,11 @@
       <c r="M23">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15">
+      <c r="N23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -12669,7 +12813,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -12701,8 +12845,11 @@
       <c r="M24">
         <v>0.65835584489725196</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15">
+      <c r="N24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -12742,8 +12889,11 @@
       <c r="M25">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15">
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -12751,7 +12901,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -12783,8 +12933,11 @@
       <c r="M26">
         <v>0.63490443337371305</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15">
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -12792,7 +12945,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -12824,8 +12977,11 @@
       <c r="M27">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15">
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -12833,7 +12989,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -12865,8 +13021,11 @@
       <c r="M28">
         <v>2.1000000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15">
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -12874,7 +13033,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -12906,8 +13065,11 @@
       <c r="M29">
         <v>0.81595511259153497</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15">
+      <c r="N29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -12915,7 +13077,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -12947,8 +13109,11 @@
       <c r="M30">
         <v>0.77299617086321304</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15">
+      <c r="N30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -12956,7 +13121,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -12988,8 +13153,11 @@
       <c r="M31">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15">
+      <c r="N31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -12997,7 +13165,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -13029,8 +13197,11 @@
       <c r="M32">
         <v>0.65835584489725196</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="15">
+      <c r="N32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -13038,7 +13209,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -13069,6 +13240,9 @@
       </c>
       <c r="M33">
         <v>0.33000000000000002</v>
+      </c>
+      <c r="N33" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -13080,7 +13254,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="C26" sqref="C26"/>
@@ -13091,7 +13265,7 @@
     <col min="3" max="3" width="17.4285714285714" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -13131,8 +13305,11 @@
       <c r="M1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+      <c r="N1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13140,7 +13317,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -13172,8 +13349,11 @@
       <c r="M2">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15">
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13181,7 +13361,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -13213,8 +13393,11 @@
       <c r="M3">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15">
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -13222,7 +13405,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -13254,8 +13437,11 @@
       <c r="M4">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -13263,7 +13449,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13295,8 +13481,11 @@
       <c r="M5">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -13304,7 +13493,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -13336,8 +13525,11 @@
       <c r="M6">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -13345,7 +13537,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -13377,8 +13569,11 @@
       <c r="M7">
         <v>0.0232876712328767</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15">
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -13386,7 +13581,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -13418,8 +13613,11 @@
       <c r="M8">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15">
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -13427,7 +13625,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -13459,8 +13657,11 @@
       <c r="M9">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15">
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -13468,7 +13669,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -13500,8 +13701,11 @@
       <c r="M10">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15">
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -13509,7 +13713,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13541,8 +13745,11 @@
       <c r="M11">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15">
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -13550,7 +13757,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13582,8 +13789,11 @@
       <c r="M12">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15">
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -13591,7 +13801,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -13623,8 +13833,11 @@
       <c r="M13">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15">
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -13632,7 +13845,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -13664,8 +13877,11 @@
       <c r="M14">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15">
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -13673,7 +13889,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -13705,8 +13921,11 @@
       <c r="M15">
         <v>0.022831050228310501</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15">
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -13714,7 +13933,7 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -13746,8 +13965,11 @@
       <c r="M16">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15">
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13755,7 +13977,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -13787,8 +14009,11 @@
       <c r="M17">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15">
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -13796,7 +14021,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -13828,8 +14053,11 @@
       <c r="M18">
         <v>0.77915338816094504</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15">
+      <c r="N18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -13837,7 +14065,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -13869,8 +14097,11 @@
       <c r="M19">
         <v>0.63024757853709501</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15">
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -13878,7 +14109,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -13910,8 +14141,11 @@
       <c r="M20">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15">
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -13919,7 +14153,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -13951,8 +14185,11 @@
       <c r="M21">
         <v>0.59834963673469899</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15">
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -13960,7 +14197,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -13992,8 +14229,11 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15">
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -14001,7 +14241,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -14033,8 +14273,11 @@
       <c r="M23">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15">
+      <c r="N23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14042,7 +14285,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -14074,8 +14317,11 @@
       <c r="M24">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15">
+      <c r="N24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -14083,7 +14329,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -14115,8 +14361,11 @@
       <c r="M25">
         <v>0.77915338816094504</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15">
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -14124,7 +14373,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -14156,8 +14405,11 @@
       <c r="M26">
         <v>0.63024757853709501</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15">
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -14165,7 +14417,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -14197,8 +14449,11 @@
       <c r="M27">
         <v>0.33000000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15">
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -14206,7 +14461,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -14238,8 +14493,11 @@
       <c r="M28">
         <v>0.59834963673469899</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15">
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -14247,7 +14505,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -14278,6 +14536,9 @@
       </c>
       <c r="M29">
         <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
